--- a/src/test/resources/IndicToIndicTransliterationTests/SupportedLanguagesTest.xlsx
+++ b/src/test/resources/IndicToIndicTransliterationTests/SupportedLanguagesTest.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="36">
   <si>
     <t>SourceLanguage</t>
   </si>
@@ -117,14 +118,23 @@
     <t>Map</t>
   </si>
   <si>
-    <t>map</t>
+    <t>Dogri</t>
+  </si>
+  <si>
+    <t>Konkani</t>
+  </si>
+  <si>
+    <t>Kashmiri</t>
+  </si>
+  <si>
+    <t>blank</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -139,6 +149,11 @@
       <sz val="11.5"/>
       <name val="Arial Unicode MS"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Mangal"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -161,11 +176,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,17 +482,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:E16"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125"/>
-    <col min="4" max="5" width="19" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="16.28515625" customWidth="1"/>
     <col min="7" max="1025" width="11.5703125"/>
   </cols>
@@ -499,7 +522,7 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -522,7 +545,7 @@
       <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="6" t="s">
         <v>30</v>
       </c>
     </row>
@@ -536,14 +559,14 @@
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="21">
+    <row r="5" spans="1:5" ht="25.5">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -553,7 +576,7 @@
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E5" t="s">
@@ -697,10 +720,10 @@
       </c>
     </row>
     <row r="14" spans="1:5" s="2" customFormat="1" ht="16.5">
-      <c r="A14" s="2" t="s">
+      <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -740,16 +763,126 @@
       <c r="C16" t="s">
         <v>7</v>
       </c>
-      <c r="E16" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
         <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/IndicToIndicTransliterationTests/SupportedLanguagesTest.xlsx
+++ b/src/test/resources/IndicToIndicTransliterationTests/SupportedLanguagesTest.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="35">
   <si>
     <t>SourceLanguage</t>
   </si>
@@ -107,9 +107,6 @@
   </si>
   <si>
     <t>র</t>
-  </si>
-  <si>
-    <t>ৰ</t>
   </si>
   <si>
     <t>Rules</t>
@@ -484,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -529,7 +526,7 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="21">
@@ -546,7 +543,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="21">
@@ -580,7 +577,7 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="21">
@@ -597,7 +594,7 @@
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="2" customFormat="1" ht="21">
@@ -614,7 +611,7 @@
         <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="2" customFormat="1" ht="21">
@@ -631,7 +628,7 @@
         <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="21">
@@ -648,7 +645,7 @@
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="2" customFormat="1" ht="21">
@@ -665,7 +662,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="21">
@@ -682,7 +679,7 @@
         <v>25</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="21">
@@ -699,7 +696,7 @@
         <v>24</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16.5">
@@ -716,7 +713,7 @@
         <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="2" customFormat="1" ht="16.5">
@@ -730,10 +727,10 @@
         <v>28</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="2" customFormat="1" ht="16.5">
@@ -750,7 +747,7 @@
         <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -769,7 +766,7 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
@@ -780,7 +777,7 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
@@ -791,7 +788,7 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
@@ -833,16 +830,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -850,16 +847,16 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
@@ -870,16 +867,16 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
         <v>34</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>35</v>
-      </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
